--- a/基金/基金定投/估值.xlsx
+++ b/基金/基金定投/估值.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\blog\基金\基金定投\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511B61F1-5B57-4DBB-849B-27F568F445D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4876F5D4-D837-49FF-BF9E-3AD63EFDAC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>截止2025.3.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>恒生科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	76.033%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -226,35 +230,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,13 +263,10 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,7 +552,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -587,7 +564,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="11"/>
@@ -608,30 +585,30 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="12"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
@@ -964,14 +941,98 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0.78100000000000003</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/基金/基金定投/估值.xlsx
+++ b/基金/基金定投/估值.xlsx
@@ -1,46 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\blog\基金\基金定投\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\blogs\基金\基金定投\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4876F5D4-D837-49FF-BF9E-3AD63EFDAC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89228BF-209B-49CC-8767-1DD17F7ABDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
-  <si>
-    <t>截止2025.3.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
   <si>
     <t>近十年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,14 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等权PE-TTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.875%（静态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PE温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,7 +127,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">	76.033%</t>
+    <t>集思录 https://www.jisilu.cn/data/indicator/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌龟量化 https://wglh.com/chinaindicespe/sh000985/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理杏仁 https://www.lixinger.com/analytics/index/dashboard/value (需要会员)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果仁网 https://guorn.com/stock/history?his=1&amp;index=000300,0.M.指数日行情_加权平均市盈率.0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋卷 https://danjuanfunds.com/djmodule/value-center?channel=1300100141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>且慢 https://qieman.com/idx-eval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐估乐股 https://www.legulegu.com/stockdata/a-ttm-lyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等权PE-LYR（静态市盈率）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿牛网 https://eniu.com/gu/sz399300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止2025.8.29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,10 +276,13 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,23 +565,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="8.6640625" style="1"/>
+    <col min="17" max="17" width="96" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -581,458 +599,486 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>12</v>
+      <c r="O3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B4" s="6">
+        <v>0.77566999999999997</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.76351999999999998</v>
+      </c>
+      <c r="D4" s="5">
+        <v>35.19</v>
+      </c>
+      <c r="E4" s="7">
+        <v>49.42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="E5" s="7">
+        <v>62.59</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.53920000000000001</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.71850000000000003</v>
+      </c>
+      <c r="D6" s="5">
+        <v>37.85</v>
+      </c>
+      <c r="E6" s="7">
+        <v>41.52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.70320000000000005</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="B7" s="6">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.4909</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D8" s="5">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="E8" s="7">
+        <v>38.64</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.83919999999999995</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.42845</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.56594999999999995</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.40279999999999999</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.5504</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.41470000000000001</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="B10" s="6">
+        <v>0.71901000000000004</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.66790000000000005</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.45938000000000001</v>
-      </c>
-      <c r="D4" s="5">
-        <v>18.63</v>
-      </c>
-      <c r="E4" s="7">
-        <v>32.44</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.76149999999999995</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.86570000000000003</v>
-      </c>
-      <c r="D5" s="5">
-        <v>51.48</v>
-      </c>
-      <c r="E5" s="7">
-        <v>44.99</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0.4108</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0.70540000000000003</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0.48199999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.37669999999999998</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.44979999999999998</v>
-      </c>
-      <c r="D6" s="5">
-        <v>29.82</v>
-      </c>
-      <c r="E6" s="7">
-        <v>29.4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.63680000000000003</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0.44040000000000001</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0.66549999999999998</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.81410000000000005</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.71730000000000005</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0.97840000000000005</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0.78920000000000001</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0.97889999999999999</v>
-      </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.2505</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.46129999999999999</v>
-      </c>
-      <c r="D8" s="5">
-        <v>38.28</v>
-      </c>
-      <c r="E8" s="7">
-        <v>26.48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0.24079999999999999</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0.54010000000000002</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0.64300000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.46810000000000002</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0.1968</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0.2288</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0.2135</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.59</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0.59319999999999995</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0.59619999999999995</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0.78100000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L11" s="6">
-        <v>0.32890000000000003</v>
+        <v>0.23649999999999999</v>
       </c>
       <c r="M11" s="8">
-        <v>0.68359999999999999</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
